--- a/test_result_max_info.xlsx
+++ b/test_result_max_info.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="glass5_max_matrix_info" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,8 +429,8 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3047,8 +3047,8 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4172,7 +4172,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im2_20000_bm_num_10_half</t>
+          <t>yeast5_MLP_im2_2000_bm_num_10_half</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4211,46 +4211,46 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>0.7753009888614829</v>
       </c>
       <c r="J15" t="n">
-        <v>-1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K15" t="n">
-        <v>-1</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L15" t="n">
-        <v>-1</v>
+        <v>0.7947619047619048</v>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="N15" t="n">
-        <v>-1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O15" t="n">
-        <v>-1</v>
+        <v>0.7613636363636365</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>0.84375</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R15" t="n">
-        <v>-1</v>
+        <v>0.868193253287593</v>
       </c>
       <c r="S15" t="n">
-        <v>-1</v>
+        <v>0.9067806603773585</v>
       </c>
       <c r="T15" t="n">
-        <v>-1</v>
+        <v>0.7840909090909091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im2_20000_im_num_10_half</t>
+          <t>yeast5_MLP_im2_2000_im_num_10_half</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4289,46 +4289,46 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
+        <v>0.7606743161672739</v>
       </c>
       <c r="J16" t="n">
-        <v>-1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="K16" t="n">
-        <v>-1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16" t="n">
-        <v>-1</v>
+        <v>0.6888580654538101</v>
       </c>
       <c r="M16" t="n">
-        <v>-1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N16" t="n">
-        <v>-1</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="O16" t="n">
-        <v>-1</v>
+        <v>0.853219696969697</v>
       </c>
       <c r="P16" t="n">
-        <v>-1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R16" t="n">
-        <v>-1</v>
+        <v>0.9027676529445398</v>
       </c>
       <c r="S16" t="n">
-        <v>-1</v>
+        <v>0.956439393939394</v>
       </c>
       <c r="T16" t="n">
-        <v>-1</v>
+        <v>0.821969696969697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im2_20000_both_num_10_half</t>
+          <t>yeast5_MLP_im2_2000_both_num_10_half</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4367,40 +4367,40 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>-1</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="J17" t="n">
-        <v>-1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K17" t="n">
-        <v>-1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L17" t="n">
-        <v>-1</v>
+        <v>0.7098484848484848</v>
       </c>
       <c r="M17" t="n">
-        <v>-1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O17" t="n">
-        <v>-1</v>
+        <v>0.7660984848484849</v>
       </c>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>0.84375</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R17" t="n">
-        <v>-1</v>
+        <v>0.8635095054316753</v>
       </c>
       <c r="S17" t="n">
-        <v>-1</v>
+        <v>0.8977272727272729</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>0.7954545454545454</v>
       </c>
     </row>
     <row r="18">
@@ -4484,7 +4484,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im3_20000_bm_num_10_half</t>
+          <t>yeast5_MLP_im3_2000_bm_num_10_half</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4523,46 +4523,46 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-1</v>
+        <v>0.771579145492189</v>
       </c>
       <c r="J19" t="n">
-        <v>-1</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K19" t="n">
-        <v>-1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19" t="n">
-        <v>-1</v>
+        <v>0.7255034340560657</v>
       </c>
       <c r="M19" t="n">
-        <v>-1</v>
+        <v>0.8125</v>
       </c>
       <c r="N19" t="n">
-        <v>-1</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="O19" t="n">
-        <v>-1</v>
+        <v>0.8287878787878789</v>
       </c>
       <c r="P19" t="n">
-        <v>-1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R19" t="n">
-        <v>-1</v>
+        <v>0.8947126929674099</v>
       </c>
       <c r="S19" t="n">
-        <v>-1</v>
+        <v>0.9379734848484849</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>0.8238636363636364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im3_20000_im_num_10_half</t>
+          <t>yeast5_MLP_im3_8000_im_num_10_half</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4601,46 +4601,46 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
+        <v>0.7351783004404833</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>0.7868852459016394</v>
       </c>
       <c r="K20" t="n">
-        <v>-1</v>
+        <v>0.6875</v>
       </c>
       <c r="L20" t="n">
-        <v>-1</v>
+        <v>0.7386291958385134</v>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="N20" t="n">
-        <v>-1</v>
+        <v>0.65</v>
       </c>
       <c r="O20" t="n">
-        <v>-1</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="P20" t="n">
-        <v>-1</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R20" t="n">
-        <v>-1</v>
+        <v>0.8515294453973699</v>
       </c>
       <c r="S20" t="n">
-        <v>-1</v>
+        <v>0.8674242424242424</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>0.8162878787878788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_im3_20000_both_num_10_half</t>
+          <t>yeast5_MLP_im3_2000_both_num_10_half</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4679,46 +4679,46 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
+        <v>0.780748247915767</v>
       </c>
       <c r="J21" t="n">
-        <v>-1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="K21" t="n">
-        <v>-1</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="L21" t="n">
-        <v>-1</v>
+        <v>0.7425912003331359</v>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="N21" t="n">
-        <v>-1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O21" t="n">
-        <v>-1</v>
+        <v>0.8287878787878789</v>
       </c>
       <c r="P21" t="n">
-        <v>-1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R21" t="n">
-        <v>-1</v>
+        <v>0.8962264150943395</v>
       </c>
       <c r="S21" t="n">
-        <v>-1</v>
+        <v>0.9398674242424242</v>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>0.8257575757575758</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both_2000_normal_num_10_half</t>
+          <t>yeast5_MLP_both_10000_normal_num_10_half</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4757,22 +4757,22 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.3059226260598921</v>
+        <v>0.3734124979303142</v>
       </c>
       <c r="J22" t="n">
-        <v>0.33</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="K22" t="n">
-        <v>0.282051282051282</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1809023952642009</v>
+        <v>0.2302885714612788</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1976047904191617</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="O22" t="n">
         <v>0.9939393939393939</v>
@@ -4784,19 +4784,19 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7180188679245283</v>
+        <v>0.7895654659805603</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7462121212121212</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6818181818181819</v>
+        <v>0.7537878787878788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both_20000_bm_num_10_half</t>
+          <t>yeast5_MLP_both_2000_bm_num_10_half</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4835,46 +4835,46 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>0.5594747474747475</v>
       </c>
       <c r="J23" t="n">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="K23" t="n">
-        <v>-1</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="L23" t="n">
-        <v>-1</v>
+        <v>0.7926767676767676</v>
       </c>
       <c r="M23" t="n">
-        <v>-1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O23" t="n">
-        <v>-1</v>
+        <v>0.4429924242424242</v>
       </c>
       <c r="P23" t="n">
-        <v>-1</v>
+        <v>0.65625</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="R23" t="n">
-        <v>-1</v>
+        <v>0.7143049599771298</v>
       </c>
       <c r="S23" t="n">
-        <v>-1</v>
+        <v>0.8224431818181819</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>0.6420454545454545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both_20000_im_num_10_half</t>
+          <t>yeast5_MLP_both_2000_im_num_10_half</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4913,46 +4913,46 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
+        <v>0.738721006050352</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>0.8533333333333333</v>
       </c>
       <c r="K24" t="n">
-        <v>-1</v>
+        <v>0.6575342465753425</v>
       </c>
       <c r="L24" t="n">
-        <v>-1</v>
+        <v>0.663592045109793</v>
       </c>
       <c r="M24" t="n">
-        <v>-1</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="N24" t="n">
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="O24" t="n">
-        <v>-1</v>
+        <v>0.8350378787878789</v>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R24" t="n">
-        <v>-1</v>
+        <v>0.8914025871926816</v>
       </c>
       <c r="S24" t="n">
-        <v>-1</v>
+        <v>0.9791666666666667</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both_20000_both_num_10_half</t>
+          <t>yeast5_MLP_both_2000_both_num_10_half</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4991,40 +4991,40 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
+        <v>0.6701751335463945</v>
       </c>
       <c r="J25" t="n">
-        <v>-1</v>
+        <v>0.8115942028985507</v>
       </c>
       <c r="K25" t="n">
-        <v>-1</v>
+        <v>0.59375</v>
       </c>
       <c r="L25" t="n">
-        <v>-1</v>
+        <v>0.6875773167096859</v>
       </c>
       <c r="M25" t="n">
-        <v>-1</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N25" t="n">
-        <v>-1</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="O25" t="n">
-        <v>-1</v>
+        <v>0.6577651515151515</v>
       </c>
       <c r="P25" t="n">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="R25" t="n">
-        <v>-1</v>
+        <v>0.8107136220697541</v>
       </c>
       <c r="S25" t="n">
-        <v>-1</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>0.7651515151515152</v>
       </c>
     </row>
     <row r="26">
@@ -5108,7 +5108,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both2_20000_bm_num_10_half</t>
+          <t>yeast5_MLP_both2_2000_bm_num_10_half</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5147,46 +5147,46 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>0.6969463869463869</v>
       </c>
       <c r="J27" t="n">
-        <v>-1</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="K27" t="n">
-        <v>-1</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="L27" t="n">
-        <v>-1</v>
+        <v>0.8206693017127801</v>
       </c>
       <c r="M27" t="n">
-        <v>-1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="O27" t="n">
-        <v>-1</v>
+        <v>0.6130681818181818</v>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="R27" t="n">
-        <v>-1</v>
+        <v>0.7978305460263007</v>
       </c>
       <c r="S27" t="n">
-        <v>-1</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>0.7481060606060607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both2_20000_im_num_10_half</t>
+          <t>yeast5_MLP_both2_2000_im_num_10_half</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5225,46 +5225,46 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
+        <v>0.7184113075679341</v>
       </c>
       <c r="J28" t="n">
-        <v>-1</v>
+        <v>0.8051948051948051</v>
       </c>
       <c r="K28" t="n">
-        <v>-1</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="L28" t="n">
-        <v>-1</v>
+        <v>0.5973071895424837</v>
       </c>
       <c r="M28" t="n">
-        <v>-1</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="O28" t="n">
-        <v>-1</v>
+        <v>0.9020833333333333</v>
       </c>
       <c r="P28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="R28" t="n">
-        <v>-1</v>
+        <v>0.9131957547169811</v>
       </c>
       <c r="S28" t="n">
-        <v>-1</v>
+        <v>0.9678030303030303</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both2_20000_both_num_10_half</t>
+          <t>yeast5_MLP_both2_2000_both_num_10_half</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5303,40 +5303,40 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>-1</v>
+        <v>0.7643893014000225</v>
       </c>
       <c r="J29" t="n">
-        <v>-1</v>
+        <v>0.8358208955223881</v>
       </c>
       <c r="K29" t="n">
-        <v>-1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L29" t="n">
-        <v>-1</v>
+        <v>0.7353843267155961</v>
       </c>
       <c r="M29" t="n">
-        <v>-1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="O29" t="n">
-        <v>-1</v>
+        <v>0.7981060606060606</v>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R29" t="n">
-        <v>-1</v>
+        <v>0.8812671526586622</v>
       </c>
       <c r="S29" t="n">
-        <v>-1</v>
+        <v>0.912878787878788</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>0.7784090909090909</v>
       </c>
     </row>
     <row r="30">
@@ -5420,7 +5420,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both3_20000_bm_num_10_half</t>
+          <t>yeast5_MLP_both3_2000_bm_num_10_half</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5459,40 +5459,40 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
+        <v>0.7766700565431397</v>
       </c>
       <c r="J31" t="n">
-        <v>-1</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K31" t="n">
-        <v>-1</v>
+        <v>0.6885245901639345</v>
       </c>
       <c r="L31" t="n">
-        <v>-1</v>
+        <v>0.7976284076284077</v>
       </c>
       <c r="M31" t="n">
-        <v>-1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N31" t="n">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="O31" t="n">
-        <v>-1</v>
+        <v>0.7611742424242425</v>
       </c>
       <c r="P31" t="n">
-        <v>-1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R31" t="n">
-        <v>-1</v>
+        <v>0.8684773441966838</v>
       </c>
       <c r="S31" t="n">
-        <v>-1</v>
+        <v>0.9071969696969698</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>0.8049242424242423</v>
       </c>
     </row>
     <row r="32">
@@ -5576,7 +5576,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>yeast5_MLP_both3_20000_both_num_10_half</t>
+          <t>yeast5_MLP_both3_2000_both_num_10_half</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5615,43 +5615,43 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-1</v>
+        <v>0.7832194629610305</v>
       </c>
       <c r="J33" t="n">
-        <v>-1</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K33" t="n">
-        <v>-1</v>
+        <v>0.7096774193548386</v>
       </c>
       <c r="L33" t="n">
-        <v>-1</v>
+        <v>0.8035567497636464</v>
       </c>
       <c r="M33" t="n">
-        <v>-1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N33" t="n">
-        <v>-1</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="O33" t="n">
-        <v>-1</v>
+        <v>0.7672348484848486</v>
       </c>
       <c r="P33" t="n">
-        <v>-1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q33" t="n">
-        <v>-1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R33" t="n">
-        <v>-1</v>
+        <v>0.8718864351057748</v>
       </c>
       <c r="S33" t="n">
-        <v>-1</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>0.8200757575757576</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>